--- a/tech/Dépendances-Vue.xlsx
+++ b/tech/Dépendances-Vue.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60A894-FB01-470D-87C9-3886642F2F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7DF27-4D47-4B17-BB7B-07CD90F96342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="570" windowWidth="13650" windowHeight="14910" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14535" yWindow="465" windowWidth="14250" windowHeight="14910" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vues" sheetId="1" r:id="rId1"/>
     <sheet name="mjs" sheetId="2" r:id="rId2"/>
+    <sheet name="Opérations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="423">
   <si>
     <t>App</t>
   </si>
@@ -416,13 +417,1052 @@
   </si>
   <si>
     <t>operation.mjs</t>
+  </si>
+  <si>
+    <t>Opérations</t>
+  </si>
+  <si>
+    <t>GetPub</t>
+  </si>
+  <si>
+    <t>get cle publique RSA d'un avatar</t>
+  </si>
+  <si>
+    <t>ChercherSponsoring</t>
+  </si>
+  <si>
+    <t>Recherche sponsoring</t>
+  </si>
+  <si>
+    <t>ExistePhrase</t>
+  </si>
+  <si>
+    <t>Recherche hash de phrase</t>
+  </si>
+  <si>
+    <t>EnregConso</t>
+  </si>
+  <si>
+    <t>enregistrement de la consommation courante d'une session</t>
+  </si>
+  <si>
+    <t>CreerEspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> création d'un nouvel espace et du comptable associé</t>
+  </si>
+  <si>
+    <t>ReceptionTicket</t>
+  </si>
+  <si>
+    <t>réception d'un ticket par le Comptable</t>
+  </si>
+  <si>
+    <t>MajCredits</t>
+  </si>
+  <si>
+    <t>mise a jour du crédits d'un compte A</t>
+  </si>
+  <si>
+    <t>PlusTicket</t>
+  </si>
+  <si>
+    <t>ajout d'un ticket à un compte A
+et ajout d'un ticket au Comptable</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>W comptas.compteurs</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>C espaces
+C syntheses
+C comptas
+C tribus
+C avatars
+C versions - DLV</t>
+  </si>
+  <si>
+    <t>R avatars</t>
+  </si>
+  <si>
+    <t>R espaces
+R sponsorings</t>
+  </si>
+  <si>
+    <t>R comptas
+R sponsorings
+R avatars</t>
+  </si>
+  <si>
+    <t>U tickets
+U versions</t>
+  </si>
+  <si>
+    <t>U comptas credits dons dlv
+DLV</t>
+  </si>
+  <si>
+    <t>U comptas credits
+C tickets
+U versions (comptable)</t>
+  </si>
+  <si>
+    <t>MoinsTicket</t>
+  </si>
+  <si>
+    <t>retrait d'un ticket à un compte A
+et retrait d'un ticket au Comptable</t>
+  </si>
+  <si>
+    <t>U versions (comptable)
+Z tickets
+U comptas credits</t>
+  </si>
+  <si>
+    <t>RafraichirTickets</t>
+  </si>
+  <si>
+    <t>nouvelles versions des tickets cités</t>
+  </si>
+  <si>
+    <t>R tickets</t>
+  </si>
+  <si>
+    <t>EstAutonome</t>
+  </si>
+  <si>
+    <t>indique si l'avatar donné en argument est 
+l'avatar principal d'un compte autonome</t>
+  </si>
+  <si>
+    <t>R comptas</t>
+  </si>
+  <si>
+    <t>SetNotifG</t>
+  </si>
+  <si>
+    <t>déclaration d'une notification à un espace par l'administrateur</t>
+  </si>
+  <si>
+    <t>U espaces</t>
+  </si>
+  <si>
+    <t>GetEspace</t>
+  </si>
+  <si>
+    <t>R espaces</t>
+  </si>
+  <si>
+    <t>get d'un espace par son ns</t>
+  </si>
+  <si>
+    <t>SetEspaceT</t>
+  </si>
+  <si>
+    <t>déclaration du profil de volume de l'espace par l'administrateur</t>
+  </si>
+  <si>
+    <t>SetEspaceOptionA</t>
+  </si>
+  <si>
+    <t>changement de l'option A, nbmi, dlvat par le Comptable</t>
+  </si>
+  <si>
+    <t>GetVersionsDlvat</t>
+  </si>
+  <si>
+    <t>IDC
+P ?</t>
+  </si>
+  <si>
+    <t>liste des id des versions d'un ns ayant la dlvat fixée</t>
+  </si>
+  <si>
+    <t>GetMembresDlvat</t>
+  </si>
+  <si>
+    <t>liste des [id,ids] des membres d'un ns ayant la dlvat fixée</t>
+  </si>
+  <si>
+    <t>ChangeAvDlvat</t>
+  </si>
+  <si>
+    <t>change la dlvat dans les versions des avatars listés</t>
+  </si>
+  <si>
+    <t>U versions
+U comptas
+DLV</t>
+  </si>
+  <si>
+    <t>ChangeMbDlvat</t>
+  </si>
+  <si>
+    <t>change la dlvat dans les membres listés</t>
+  </si>
+  <si>
+    <t>U membres
+DLV</t>
+  </si>
+  <si>
+    <t>R versions
+DLV</t>
+  </si>
+  <si>
+    <t>R membres
+DLV</t>
+  </si>
+  <si>
+    <t>GetSynthese</t>
+  </si>
+  <si>
+    <t>retourne la synthèse de l'espace ns</t>
+  </si>
+  <si>
+    <t>R syntheses</t>
+  </si>
+  <si>
+    <t>AjoutSponsoring</t>
+  </si>
+  <si>
+    <t>déclaration d'un nouveau sponsoring par le comptable ou un sponsor</t>
+  </si>
+  <si>
+    <t>C sponsorings
+U versions
+U comptas credits dlv
+DLV</t>
+  </si>
+  <si>
+    <t>ProlongerSponsoring</t>
+  </si>
+  <si>
+    <t>prolongation d'un sponsoring existant</t>
+  </si>
+  <si>
+    <t>U sponsorings
+U versions</t>
+  </si>
+  <si>
+    <t>RefusSponsoring</t>
+  </si>
+  <si>
+    <t>refus de son sponsoring par le _sponsorisé_</t>
+  </si>
+  <si>
+    <t>IDC ?</t>
+  </si>
+  <si>
+    <t>IDC ??</t>
+  </si>
+  <si>
+    <t>création du compte du _sponsorisé_
+Création d'un chat</t>
+  </si>
+  <si>
+    <t>C comptas
+C avatars
+C versions
+U sponsorings
+U tribus
+U syntheses
+C chats</t>
+  </si>
+  <si>
+    <t>ConnexionCompte</t>
+  </si>
+  <si>
+    <t>connexion authentifiée à un compte</t>
+  </si>
+  <si>
+    <t>R comptas
+R avatars
+R espaces</t>
+  </si>
+  <si>
+    <t>Synchroniser</t>
+  </si>
+  <si>
+    <t>Synchroniser une session</t>
+  </si>
+  <si>
+    <t>R versions
+R avatars
+R chats
+R tickets
+R sponsorings
+R notes
+R groupes
+R membres
+R chatgrs</t>
+  </si>
+  <si>
+    <t>MajTribuVols</t>
+  </si>
+  <si>
+    <t>Mise à jour des volumes v1 v2 d'une compta dans sa tribu</t>
+  </si>
+  <si>
+    <t>U tribus
+U syntheses</t>
+  </si>
+  <si>
+    <t>gestion des abonnements</t>
+  </si>
+  <si>
+    <t>GestionAb</t>
+  </si>
+  <si>
+    <t>GetAvatars</t>
+  </si>
+  <si>
+    <t>retourne les documents avatar dont la version est postérieure à celle détenue en session</t>
+  </si>
+  <si>
+    <t>R comptas
+R avatars</t>
+  </si>
+  <si>
+    <t>GetAvatar</t>
+  </si>
+  <si>
+    <t>OBSOLETE ?</t>
+  </si>
+  <si>
+    <t>GetTribu</t>
+  </si>
+  <si>
+    <t>retourne le row le plus récent de la tribu</t>
+  </si>
+  <si>
+    <t>R tribus</t>
+  </si>
+  <si>
+    <t>AboTribuC</t>
+  </si>
+  <si>
+    <t>abonnement / désabonnement de la tribu courante</t>
+  </si>
+  <si>
+    <t>ChargerNotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> retourne les notes de l'avatar / groupe id et de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R notes</t>
+  </si>
+  <si>
+    <t>ChargerChats</t>
+  </si>
+  <si>
+    <t>retourne les chats de l'avatar id et de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R chats</t>
+  </si>
+  <si>
+    <t>ChargerTickets</t>
+  </si>
+  <si>
+    <t>retourne les tickets de l'avatar id et de version postérieure à v</t>
+  </si>
+  <si>
+    <t>ChargerSponsorings</t>
+  </si>
+  <si>
+    <t>retourne les sponsoring de l'avatar id et de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R sponsorings</t>
+  </si>
+  <si>
+    <t>ChargerMembresChatgrs</t>
+  </si>
+  <si>
+    <t>retourne les membres du groupe id et de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R membres
+R chatgrs</t>
+  </si>
+  <si>
+    <t>ChargerGMS</t>
+  </si>
+  <si>
+    <t>retourne le groupe id, ses membres et ses notes, de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R versions
+R groupes
+R membres</t>
+  </si>
+  <si>
+    <t>ChargerTribus</t>
+  </si>
+  <si>
+    <t>retourne les tribus de l'espace</t>
+  </si>
+  <si>
+    <t>ChargerASCS</t>
+  </si>
+  <si>
+    <t>retourne l'avatar, ses notes, chats, tickets et sponsorings, de version postérieure à v</t>
+  </si>
+  <si>
+    <t>R versions
+R avatars
+notes
+R sponsorings
+R chats
+R tickets</t>
+  </si>
+  <si>
+    <t>avGrSignatures</t>
+  </si>
+  <si>
+    <t>obtention des groupes et avatars manquants et signatures</t>
+  </si>
+  <si>
+    <t>R comptas
+R avatars
+R membres
+DLV</t>
+  </si>
+  <si>
+    <t>RetraitAccesGroupe</t>
+  </si>
+  <si>
+    <t>retirer l'accès à un groupe pour un avatar</t>
+  </si>
+  <si>
+    <t>U avatars
+U versions</t>
+  </si>
+  <si>
+    <t>DisparitionMembre</t>
+  </si>
+  <si>
+    <t>U groupe
+U versions</t>
+  </si>
+  <si>
+    <t>OBSOLETE
+enregistrement du statut disparu d'un membre dans son groupe</t>
+  </si>
+  <si>
+    <t>RafraichirCvs</t>
+  </si>
+  <si>
+    <t>rafraîchir les cartes de visite, quand nécessaire
+Mises à jour des cartes de visite, quand c'est nécessaire, pour tous les chats et membres de la cible.</t>
+  </si>
+  <si>
+    <t>R avatars
+U chats
+U versions</t>
+  </si>
+  <si>
+    <t>changer les mots clés et le mémo attaché à un avatar / groupe par le compte</t>
+  </si>
+  <si>
+    <t>MotsclesCompte</t>
+  </si>
+  <si>
+    <t>changer les mots clés du compte</t>
+  </si>
+  <si>
+    <t>ChangementPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> changer la phrase secrète du compte</t>
+  </si>
+  <si>
+    <t>U comptas</t>
+  </si>
+  <si>
+    <t>MajCv</t>
+  </si>
+  <si>
+    <t>mise à jour de la carte de visite d'un avatar</t>
+  </si>
+  <si>
+    <t>GetAvatarPC</t>
+  </si>
+  <si>
+    <t>information sur l'avatar ayant une phrase de contact donnée</t>
+  </si>
+  <si>
+    <t>R avatar</t>
+  </si>
+  <si>
+    <t>ChangementPC</t>
+  </si>
+  <si>
+    <t>changement de la phrase de contact d'un avatar</t>
+  </si>
+  <si>
+    <t>NouveauChat</t>
+  </si>
+  <si>
+    <t>création d'un nouveau Chat</t>
+  </si>
+  <si>
+    <t>R avatars
+U versions
+C chats
+U comptas</t>
+  </si>
+  <si>
+    <t>MajChat</t>
+  </si>
+  <si>
+    <t>mise à jour d'un Chat, gère aussi un don / crédit</t>
+  </si>
+  <si>
+    <t>U comptas
+R avatars
+U versions
+DLV</t>
+  </si>
+  <si>
+    <t>PassifChat</t>
+  </si>
+  <si>
+    <t>U comptas
+U versions
+U chats</t>
+  </si>
+  <si>
+    <t>rend le chat passif, nombre de chat - 1, items vidé</t>
+  </si>
+  <si>
+    <t>MuterCompte</t>
+  </si>
+  <si>
+    <t>Mutation dy type d\'un compte</t>
+  </si>
+  <si>
+    <t>U comptas
+U tribus
+U syntheses
+DLV</t>
+  </si>
+  <si>
+    <t>NouvelAvatar</t>
+  </si>
+  <si>
+    <t>création d'un nouvel avatar</t>
+  </si>
+  <si>
+    <t>U comptas
+C versions
+C avatars</t>
+  </si>
+  <si>
+    <t>NouvelleTribu</t>
+  </si>
+  <si>
+    <t>création d'une nouvelle tribu par le comptable</t>
+  </si>
+  <si>
+    <t>U comptas
+C tribus
+U syntheses</t>
+  </si>
+  <si>
+    <t>SetNotifT</t>
+  </si>
+  <si>
+    <t>notification de la tribu</t>
+  </si>
+  <si>
+    <t>U tribus
+U synthses</t>
+  </si>
+  <si>
+    <t>SetNotifC</t>
+  </si>
+  <si>
+    <t>notification d'un compte d'une tribu</t>
+  </si>
+  <si>
+    <t>R comptas
+U tribus
+U syntheses</t>
+  </si>
+  <si>
+    <t>SetAtrItemComptable</t>
+  </si>
+  <si>
+    <t>Set des quotas OU de l'info d'une tribu</t>
+  </si>
+  <si>
+    <t>U tribus
+U comptas
+U syntheses</t>
+  </si>
+  <si>
+    <t>SetSponsor</t>
+  </si>
+  <si>
+    <t>déclare la qualité de sponsor d'un compte dans une tribu</t>
+  </si>
+  <si>
+    <t>U comptas
+U syntheses
+U tribus</t>
+  </si>
+  <si>
+    <t>SetQuotas</t>
+  </si>
+  <si>
+    <t>déclaration des quotas d'un compte par un sponsor de sa tribu</t>
+  </si>
+  <si>
+    <t>U comptas compteurs dlv
+U synthses
+U tribus
+DLV</t>
+  </si>
+  <si>
+    <t>SetDhvuCompta</t>
+  </si>
+  <si>
+    <t>enregistrement de la date-heure de _vue_ des notifications dans une session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mise à jour de la tribu d'un compte </t>
+  </si>
+  <si>
+    <t>MajCletKCompta</t>
+  </si>
+  <si>
+    <t>GetCompteursCompta</t>
+  </si>
+  <si>
+    <t>retourne les "compteurs" d'un compte</t>
+  </si>
+  <si>
+    <t>ChangerTribu</t>
+  </si>
+  <si>
+    <t>changer un compte de tribu par le Comptable</t>
+  </si>
+  <si>
+    <t>U comptas
+U tribus
+U syntheses</t>
+  </si>
+  <si>
+    <t>MajCvGr</t>
+  </si>
+  <si>
+    <t>Maj de la carte de visite d'un groupe</t>
+  </si>
+  <si>
+    <t>U groupes
+U versions</t>
+  </si>
+  <si>
+    <t>NouveauGroupe</t>
+  </si>
+  <si>
+    <t>Nouveau groupe</t>
+  </si>
+  <si>
+    <t>U comptas
+U avatars
+U versions
+C groupes
+C membres
+DLV</t>
+  </si>
+  <si>
+    <t>MotsclesGroupe</t>
+  </si>
+  <si>
+    <t>Mots clés du groupe</t>
+  </si>
+  <si>
+    <t>HebGroupe</t>
+  </si>
+  <si>
+    <t>Hébergement d'un groupe</t>
+  </si>
+  <si>
+    <t>U versions
+U groupes
+U comptas</t>
+  </si>
+  <si>
+    <t>AcceptInvitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptation invitation </t>
+  </si>
+  <si>
+    <t>U versions
+U groupes
+U avatars
+U chatgrs
+U membres
+U comptas</t>
+  </si>
+  <si>
+    <t>InvitationFiche</t>
+  </si>
+  <si>
+    <t>Fiche invitation</t>
+  </si>
+  <si>
+    <t>R groupes
+R membres
+R chatgrs</t>
+  </si>
+  <si>
+    <t>InvitationGroupe</t>
+  </si>
+  <si>
+    <t>U groupes
+U versions
+U membres
+U chatgrs</t>
+  </si>
+  <si>
+    <t>Invitation à un groupe</t>
+  </si>
+  <si>
+    <t>NouveauMembre</t>
+  </si>
+  <si>
+    <t>Nouveau membre (contact)</t>
+  </si>
+  <si>
+    <t>U groupes
+U versions
+U membres</t>
+  </si>
+  <si>
+    <t>MajDroitsMembre</t>
+  </si>
+  <si>
+    <t>Maj des droits d'un membre</t>
+  </si>
+  <si>
+    <t>U groupes
+U membres
+U versions</t>
+  </si>
+  <si>
+    <t>OublierMembre</t>
+  </si>
+  <si>
+    <t>Oublier un membre</t>
+  </si>
+  <si>
+    <t>U/D groupes
+D membres
+U versions
+U comptas</t>
+  </si>
+  <si>
+    <t>ModeSimple</t>
+  </si>
+  <si>
+    <t>Mode simple / unanime d'un groupe</t>
+  </si>
+  <si>
+    <t>ItemChatgr</t>
+  </si>
+  <si>
+    <t>ajout / effacement d'un item de chat de groupe</t>
+  </si>
+  <si>
+    <t>U versions
+U chatgrs</t>
+  </si>
+  <si>
+    <t>NouvelleNote</t>
+  </si>
+  <si>
+    <t>Nouvelle Note</t>
+  </si>
+  <si>
+    <t>C notes
+U versions</t>
+  </si>
+  <si>
+    <t>MajNote</t>
+  </si>
+  <si>
+    <t>Ma note</t>
+  </si>
+  <si>
+    <t>U versions
+U notes</t>
+  </si>
+  <si>
+    <t>ExcluNote</t>
+  </si>
+  <si>
+    <t>Changer l'exclusivité d'écriture d'une note</t>
+  </si>
+  <si>
+    <t>McNote</t>
+  </si>
+  <si>
+    <t>Changer les mots clés d'une note</t>
+  </si>
+  <si>
+    <t>RattNote</t>
+  </si>
+  <si>
+    <t>Rattacher une note à une autre ou à une racine</t>
+  </si>
+  <si>
+    <t>SupprNote</t>
+  </si>
+  <si>
+    <t>Supprimer la note</t>
+  </si>
+  <si>
+    <t>U notes
+U versions
+U comptas
+C fpurges
+ST - delFiles</t>
+  </si>
+  <si>
+    <t>ChargerCvs</t>
+  </si>
+  <si>
+    <t>Charger la CV dont la version est postérieure à celle détenue en session</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> retourne l'URL de get d'un fichier</t>
+  </si>
+  <si>
+    <t>U comptas
+ST - getUrl</t>
+  </si>
+  <si>
+    <t>PutUrl</t>
+  </si>
+  <si>
+    <t>retourne l'URL de put d'un fichier</t>
+  </si>
+  <si>
+    <t>valider upload</t>
+  </si>
+  <si>
+    <t>ValiderUpload</t>
+  </si>
+  <si>
+    <t>R comptas
+C transferts
+ST - putUrl</t>
+  </si>
+  <si>
+    <t>U comtas
+D transferts
+ST - delFiles</t>
+  </si>
+  <si>
+    <t>SupprFichier</t>
+  </si>
+  <si>
+    <t>Supprimer un ficher</t>
+  </si>
+  <si>
+    <t>U notes
+U versions
+U groupes
+U comptas
+D fpurges</t>
+  </si>
+  <si>
+    <t>Supprimer un avatar</t>
+  </si>
+  <si>
+    <t>D avatars
+U versions
+U comptas
+U tribus
+U syntheses
+U chats
+D sponsorings
+U groupes</t>
+  </si>
+  <si>
+    <t>ListeGcvols</t>
+  </si>
+  <si>
+    <t>Retourne la liste des gcvols de l'espace</t>
+  </si>
+  <si>
+    <t>R gcvols</t>
+  </si>
+  <si>
+    <t>SupprComptesTribu</t>
+  </si>
+  <si>
+    <t>Supprime un compte de sa tribu, de facto récupère le volume</t>
+  </si>
+  <si>
+    <t>U tribus
+U syntheses
+D gcvols</t>
+  </si>
+  <si>
+    <t>GCHeb</t>
+  </si>
+  <si>
+    <t>Traitement des fins d'hébergement</t>
+  </si>
+  <si>
+    <t>Z versions
+DLV</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Détection des groupes orphelins</t>
+  </si>
+  <si>
+    <t>GCGro</t>
+  </si>
+  <si>
+    <t>U/Z versions
+D membres
+DLV</t>
+  </si>
+  <si>
+    <t>Purge des sous-collections d'avatars et de groupes</t>
+  </si>
+  <si>
+    <t>GCPag</t>
+  </si>
+  <si>
+    <t>D notes
+D membres
+D transferts
+D chatgrs
+D sponsorings
+D chats
+D avatars
+D groupes
+DLV versions</t>
+  </si>
+  <si>
+    <t>GCPagtr</t>
+  </si>
+  <si>
+    <t>Récupération des volumes d'un compte</t>
+  </si>
+  <si>
+    <t>U comptas
+C gcvols</t>
+  </si>
+  <si>
+    <t>GCFpu</t>
+  </si>
+  <si>
+    <t>purges des fichiers</t>
+  </si>
+  <si>
+    <t>R/D fpurges
+ST delFiles</t>
+  </si>
+  <si>
+    <t>GCTra</t>
+  </si>
+  <si>
+    <t>traitement des transferts abandonnés</t>
+  </si>
+  <si>
+    <t>R/D transferts
+ST - delFiles</t>
+  </si>
+  <si>
+    <t>GCDlv</t>
+  </si>
+  <si>
+    <t>purge des sponsorings et versions obsolètes</t>
+  </si>
+  <si>
+    <t>D sponsorings
+D versions</t>
+  </si>
+  <si>
+    <t>GCstcc</t>
+  </si>
+  <si>
+    <t>enregistrement des statistiques mensuelles comptables</t>
+  </si>
+  <si>
+    <t>U espaces
+R comptas
+R avatars</t>
+  </si>
+  <si>
+    <t>U espace
+R avatars
+R/D tickets
+ST - putFile</t>
+  </si>
+  <si>
+    <t>GCstct</t>
+  </si>
+  <si>
+    <t>enregistrement des statistiques mensuelles des tickets</t>
+  </si>
+  <si>
+    <t>TestRSA</t>
+  </si>
+  <si>
+    <t>CrypterRaw</t>
+  </si>
+  <si>
+    <t>ComptaStat</t>
+  </si>
+  <si>
+    <t>TicketsStat</t>
+  </si>
+  <si>
+    <t>GetUrlStat</t>
+  </si>
+  <si>
+    <t>retourne l'URL de get d'un fichier de stat mensuelle</t>
+  </si>
+  <si>
+    <t>ST - getUrl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -449,6 +1489,23 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,6 +1535,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,9 +1568,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,7 +1608,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -642,7 +1714,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -784,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3793,7 +4865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B4FBD6-8112-40AE-93B6-DB1C507D1FBB}">
   <dimension ref="A2:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4238,4 +5310,1453 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F99CB-5135-4FC1-91EE-896F47B0DE9B}">
+  <dimension ref="A1:D106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tech/Dépendances-Vue.xlsx
+++ b/tech/Dépendances-Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\tech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF7DF27-4D47-4B17-BB7B-07CD90F96342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283607D9-03A1-4773-A484-0407E1042C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14535" yWindow="465" windowWidth="14250" windowHeight="14910" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2985" windowWidth="19035" windowHeight="12510" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vues" sheetId="1" r:id="rId1"/>
@@ -1462,7 +1462,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1487,12 +1487,6 @@
       <i/>
       <sz val="11"/>
       <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF6A9955"/>
-      <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
@@ -1527,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1542,13 +1536,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5316,28 +5313,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735F99CB-5135-4FC1-91EE-896F47B0DE9B}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="9" customWidth="1"/>
     <col min="3" max="3" width="28" style="6" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -5348,10 +5345,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5362,10 +5359,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5376,10 +5373,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5390,10 +5387,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5404,10 +5401,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -5418,10 +5415,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5432,10 +5429,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -5446,10 +5443,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5460,10 +5457,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5474,10 +5471,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5488,10 +5485,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5502,10 +5499,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5516,10 +5513,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -5530,10 +5527,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -5544,10 +5541,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -5558,10 +5555,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>183</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -5572,10 +5569,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>185</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -5586,10 +5583,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>188</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5600,10 +5597,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>193</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -5614,10 +5611,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -5628,10 +5625,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>199</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -5642,10 +5639,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5656,10 +5653,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5670,10 +5667,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -5684,10 +5681,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -5698,10 +5695,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -5712,10 +5709,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>216</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -5723,10 +5720,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -5737,18 +5734,18 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>224</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -5759,10 +5756,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>227</v>
       </c>
       <c r="D33" s="5" t="s">
@@ -5770,10 +5767,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>229</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -5784,10 +5781,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>232</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -5798,10 +5795,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>235</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -5812,10 +5809,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>237</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -5826,10 +5823,10 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -5840,10 +5837,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>243</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -5854,10 +5851,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>246</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -5868,10 +5865,10 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -5882,10 +5879,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>251</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -5896,10 +5893,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>254</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -5910,10 +5907,10 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>258</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -5924,10 +5921,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>260</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -5938,10 +5935,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>262</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -5952,10 +5949,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>264</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -5966,10 +5963,10 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>266</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -5980,10 +5977,10 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>269</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -5994,10 +5991,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="9" t="s">
         <v>271</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -6008,10 +6005,10 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>274</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -6022,10 +6019,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>276</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -6036,10 +6033,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>279</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -6050,10 +6047,10 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C54" s="6" t="s">
@@ -6064,10 +6061,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>285</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -6078,10 +6075,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>288</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -6092,10 +6089,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>291</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -6106,10 +6103,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>294</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -6120,10 +6117,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>297</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -6134,10 +6131,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>300</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -6148,10 +6145,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>303</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -6162,10 +6159,10 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>306</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -6176,10 +6173,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C63" s="6" t="s">
@@ -6190,10 +6187,10 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>310</v>
       </c>
       <c r="C64" s="6" t="s">
@@ -6204,10 +6201,10 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>313</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -6218,10 +6215,10 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -6232,10 +6229,10 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>318</v>
       </c>
       <c r="C67" s="6" t="s">
@@ -6246,10 +6243,10 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>321</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -6260,10 +6257,10 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -6274,10 +6271,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>326</v>
       </c>
       <c r="C70" s="6" t="s">
@@ -6288,10 +6285,10 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>329</v>
       </c>
       <c r="C71" s="6" t="s">
@@ -6302,10 +6299,10 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>332</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -6316,10 +6313,10 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -6330,10 +6327,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>338</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -6344,10 +6341,10 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>341</v>
       </c>
       <c r="C75" s="6" t="s">
@@ -6358,10 +6355,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>344</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -6372,10 +6369,10 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>347</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -6386,10 +6383,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>349</v>
       </c>
       <c r="C78" s="6" t="s">
@@ -6400,10 +6397,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>352</v>
       </c>
       <c r="C79" s="6" t="s">
@@ -6414,10 +6411,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="9" t="s">
         <v>355</v>
       </c>
       <c r="C80" s="6" t="s">
@@ -6428,10 +6425,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>358</v>
       </c>
       <c r="C81" s="6" t="s">
@@ -6442,10 +6439,10 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>360</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -6456,10 +6453,10 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>362</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -6470,10 +6467,10 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>364</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -6484,10 +6481,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>367</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -6498,10 +6495,10 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9" t="s">
         <v>369</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -6512,10 +6509,10 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>372</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -6526,10 +6523,10 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>373</v>
       </c>
       <c r="C88" s="6" t="s">
@@ -6540,10 +6537,10 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>378</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -6554,10 +6551,10 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>380</v>
       </c>
       <c r="C90" s="6" t="s">
@@ -6568,10 +6565,10 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>383</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -6582,10 +6579,10 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>386</v>
       </c>
       <c r="C92" s="6" t="s">
@@ -6596,10 +6593,10 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>389</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -6610,10 +6607,10 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="9" t="s">
         <v>392</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -6624,10 +6621,10 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="9" t="s">
         <v>395</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -6638,10 +6635,10 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="9" t="s">
         <v>399</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -6652,10 +6649,10 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>402</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -6666,10 +6663,10 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>405</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -6680,10 +6677,10 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="9" t="s">
         <v>408</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -6694,10 +6691,10 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="9" t="s">
         <v>411</v>
       </c>
       <c r="C100" s="6" t="s">
@@ -6708,10 +6705,10 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>415</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -6722,10 +6719,10 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="9" t="s">
         <v>421</v>
       </c>
       <c r="C102" s="6" t="s">
@@ -6736,22 +6733,22 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>419</v>
       </c>
     </row>
